--- a/WokOnTheWildSide.xlsx
+++ b/WokOnTheWildSide.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dean\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flintd2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="762" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Brief" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="_edit_recipe" sheetId="19" r:id="rId11"/>
     <sheet name="_del_recipe" sheetId="23" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="262">
   <si>
     <t>PROJECT BRIEF</t>
   </si>
@@ -847,11 +847,17 @@
   <si>
     <t>function: _del_recipe</t>
   </si>
+  <si>
+    <t>ingr</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1546,6 +1552,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1555,39 +1585,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,68 +1636,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1754,7 +1760,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC2BBE4-1C40-4B50-972A-8C22923F69CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FC2BBE4-1C40-4B50-972A-8C22923F69CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1819,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B1E8BA-D626-402C-9298-B9164A8596B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3B1E8BA-D626-402C-9298-B9164A8596B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2251,7 +2257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECF87C5-5870-4681-AEF2-F51B22AEDFA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2351,7 +2357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCE42DE-0E46-47B5-9797-E3FC08F1D565}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2417,22 +2423,22 @@
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="47"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="47"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
       <c r="J8" s="47"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -2712,7 +2718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933FFE30-7661-4459-BCAF-D715A6431FA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2831,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3142,18 +3148,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="18" customWidth="1"/>
     <col min="4" max="9" width="12.140625" style="18" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="18" customWidth="1"/>
     <col min="11" max="13" width="9.140625" style="18"/>
@@ -3231,7 +3237,7 @@
         <v>65</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="P2" s="18" t="s">
         <v>185</v>
@@ -3245,14 +3251,14 @@
       </c>
       <c r="S2" s="18" t="str">
         <f>O2</f>
-        <v>sloppy joes</v>
+        <v>Pad Thai</v>
       </c>
       <c r="T2" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U2" s="18" t="str">
         <f>CONCATENATE(P1&amp;P2&amp;Q2&amp;R2&amp;S2&amp;T2)</f>
-        <v>{"dish_name":"sloppy joes",</v>
+        <v>{"dish_name":"Pad Thai",</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3288,7 +3294,7 @@
         <v>248</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>185</v>
@@ -3302,14 +3308,14 @@
       </c>
       <c r="S3" s="18" t="str">
         <f>O3</f>
-        <v>sloppy joes</v>
+        <v>a Thai dish based on rice noodles.</v>
       </c>
       <c r="T3" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U3" s="18" t="str">
         <f>CONCATENATE(P3&amp;Q3&amp;R3&amp;S3&amp;T3)</f>
-        <v>"descr":"sloppy joes",</v>
+        <v>"descr":"a Thai dish based on rice noodles.",</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3342,31 +3348,31 @@
       <c r="K4" s="23"/>
       <c r="L4" s="24"/>
       <c r="N4" s="18" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="P4" s="18" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="18" t="str">
         <f t="shared" ref="Q4:Q21" si="0">N4</f>
-        <v>ingr1</v>
+        <v>ingr</v>
       </c>
       <c r="R4" s="18" t="s">
         <v>186</v>
       </c>
       <c r="S4" s="18" t="str">
         <f t="shared" ref="S4:S21" si="1">O4</f>
-        <v>1 pound ground beef</v>
+        <v>125g rice noodles</v>
       </c>
       <c r="T4" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U4" s="18" t="str">
         <f>CONCATENATE(P4&amp;Q4&amp;R4&amp;S4&amp;T4)</f>
-        <v>"ingr1":"1 pound ground beef",</v>
+        <v>"ingr":"125g rice noodles",</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3398,32 +3404,29 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="24"/>
-      <c r="N5" s="18" t="s">
-        <v>237</v>
-      </c>
       <c r="O5" s="18" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="P5" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q5" s="18" t="str">
+      <c r="Q5" s="18">
         <f t="shared" si="0"/>
-        <v>ingr2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="18" t="s">
         <v>186</v>
       </c>
       <c r="S5" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>6 sandwich buns</v>
+        <v>3 tbsp lime juice about 2 limes</v>
       </c>
       <c r="T5" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U5" s="18" t="str">
         <f t="shared" ref="U5:U20" si="2">CONCATENATE(P5&amp;Q5&amp;R5&amp;S5&amp;T5)</f>
-        <v>"ingr2":"6 sandwich buns",</v>
+        <v>"0":"3 tbsp lime juice about 2 limes",</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3455,32 +3458,29 @@
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="24"/>
-      <c r="N6" s="18" t="s">
-        <v>238</v>
-      </c>
       <c r="O6" s="18" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q6" s="18" t="str">
+      <c r="Q6" s="18">
         <f t="shared" si="0"/>
-        <v>ingr3</v>
+        <v>0</v>
       </c>
       <c r="R6" s="18" t="s">
         <v>186</v>
       </c>
       <c r="S6" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>2 tablespoons flour, or more</v>
+        <v>½ tsp cayenne pepper</v>
       </c>
       <c r="T6" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U6" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"ingr3":"2 tablespoons flour, or more",</v>
+        <v>"0":"½ tsp cayenne pepper",</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3512,32 +3512,29 @@
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
-      <c r="N7" s="18" t="s">
-        <v>239</v>
-      </c>
       <c r="O7" s="18" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="P7" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q7" s="18" t="str">
+      <c r="Q7" s="18">
         <f t="shared" si="0"/>
-        <v>ingr4</v>
+        <v>0</v>
       </c>
       <c r="R7" s="18" t="s">
         <v>186</v>
       </c>
       <c r="S7" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>1 cup ketchup</v>
+        <v>2 tsp light muscovado sugar</v>
       </c>
       <c r="T7" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U7" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"ingr4":"1 cup ketchup",</v>
+        <v>"0":"2 tsp light muscovado sugar",</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3569,32 +3566,29 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
-      <c r="N8" s="18" t="s">
-        <v>240</v>
-      </c>
       <c r="O8" s="18" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q8" s="18" t="str">
+      <c r="Q8" s="18">
         <f t="shared" si="0"/>
-        <v>ingr5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="18" t="s">
         <v>186</v>
       </c>
       <c r="S8" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>1/2 cup diced onion</v>
+        <v>2 tbsp fish sauce</v>
       </c>
       <c r="T8" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U8" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"ingr5":"1/2 cup diced onion",</v>
+        <v>"0":"2 tbsp fish sauce",</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3626,32 +3620,29 @@
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24"/>
-      <c r="N9" s="18" t="s">
-        <v>241</v>
-      </c>
       <c r="O9" s="18" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q9" s="18" t="str">
+      <c r="Q9" s="18">
         <f t="shared" si="0"/>
-        <v>ingr6</v>
+        <v>0</v>
       </c>
       <c r="R9" s="18" t="s">
         <v>186</v>
       </c>
       <c r="S9" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>1/2 teaspoon dry mustard</v>
+        <v>2 tbsp vegetable oil</v>
       </c>
       <c r="T9" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U9" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"ingr6":"1/2 teaspoon dry mustard",</v>
+        <v>"0":"2 tbsp vegetable oil",</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3678,32 +3669,29 @@
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
-      <c r="N10" s="18" t="s">
-        <v>242</v>
-      </c>
       <c r="O10" s="18" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="P10" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q10" s="18" t="str">
+      <c r="Q10" s="18">
         <f t="shared" si="0"/>
-        <v>ingr7</v>
+        <v>0</v>
       </c>
       <c r="R10" s="18" t="s">
         <v>186</v>
       </c>
       <c r="S10" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>1 tablespoon vinegar</v>
+        <v>200g cooked and peeled tiger prawn</v>
       </c>
       <c r="T10" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U10" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"ingr7":"1 tablespoon vinegar",</v>
+        <v>"0":"200g cooked and peeled tiger prawn",</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3730,32 +3718,29 @@
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="24"/>
-      <c r="N11" s="18" t="s">
-        <v>243</v>
-      </c>
       <c r="O11" s="18" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q11" s="18" t="str">
+      <c r="Q11" s="18">
         <f t="shared" si="0"/>
-        <v>ingr8</v>
+        <v>0</v>
       </c>
       <c r="R11" s="18" t="s">
         <v>186</v>
       </c>
       <c r="S11" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>1 tablespoon brown sugar</v>
+        <v>4 spring onions</v>
       </c>
       <c r="T11" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U11" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"ingr8":"1 tablespoon brown sugar",</v>
+        <v>"0":"4 spring onions",</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3778,29 +3763,29 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="24"/>
-      <c r="N12" s="18" t="s">
-        <v>244</v>
+      <c r="O12" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="P12" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q12" s="18" t="str">
+      <c r="Q12" s="18">
         <f t="shared" si="0"/>
-        <v>ingr9</v>
+        <v>0</v>
       </c>
       <c r="R12" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="18" t="str">
         <f>O12</f>
-        <v>0</v>
+        <v>140g beansprout</v>
       </c>
       <c r="T12" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U12" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"ingr9":"0",</v>
+        <v>"0":"140g beansprout",</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3820,29 +3805,29 @@
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="24"/>
-      <c r="N13" s="18" t="s">
-        <v>245</v>
+      <c r="O13" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="P13" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q13" s="18" t="str">
+      <c r="Q13" s="18">
         <f t="shared" si="0"/>
-        <v>ingr10</v>
+        <v>0</v>
       </c>
       <c r="R13" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25g salted peanut</v>
       </c>
       <c r="T13" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U13" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"ingr10":"0",</v>
+        <v>"0":"25g salted peanut",</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3875,31 +3860,31 @@
       <c r="K14" s="23"/>
       <c r="L14" s="24"/>
       <c r="N14" s="37" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="O14" s="37" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="P14" s="18" t="s">
         <v>185</v>
       </c>
       <c r="Q14" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>step1</v>
+        <v>step</v>
       </c>
       <c r="R14" s="18" t="s">
         <v>186</v>
       </c>
       <c r="S14" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Brown the beef in a skillet over medium heat; pour off fat.</v>
+        <v>Put the noodles in a large heatproof bowl, pour boiling water over them and leave for 4 minutes, then drain and refresh under cold running water.</v>
       </c>
       <c r="T14" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U14" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"step1":"Brown the beef in a skillet over medium heat; pour off fat.",</v>
+        <v>"step":"Put the noodles in a large heatproof bowl, pour boiling water over them and leave for 4 minutes, then drain and refresh under cold running water.",</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3931,32 +3916,26 @@
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="24"/>
-      <c r="N15" s="37" t="s">
-        <v>103</v>
-      </c>
+      <c r="N15" s="37"/>
       <c r="O15" s="37" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q15" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>step2</v>
-      </c>
       <c r="R15" s="18" t="s">
         <v>186</v>
       </c>
       <c r="S15" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>In a small bowl, mix together the brown sugar, vinegar, and mustard. Add this mixture to the beef along with the celery and onion, and ketchup. Stir together to combine.</v>
+        <v>Put the lime juice, cayenne, sugar and fish sauce in a bowl and mix well. Have all the other ingredients ready by the cooker.</v>
       </c>
       <c r="T15" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U15" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"step2":"In a small bowl, mix together the brown sugar, vinegar, and mustard. Add this mixture to the beef along with the celery and onion, and ketchup. Stir together to combine.",</v>
+        <v>"":"Put the lime juice, cayenne, sugar and fish sauce in a bowl and mix well. Have all the other ingredients ready by the cooker.",</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3988,32 +3967,26 @@
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
-      <c r="N16" s="37" t="s">
-        <v>104</v>
-      </c>
+      <c r="N16" s="37"/>
       <c r="O16" s="37" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="P16" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q16" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>step3</v>
-      </c>
       <c r="R16" s="18" t="s">
         <v>186</v>
       </c>
       <c r="S16" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Sprinkle flour over mixture and stir to mix well. If mixture is still not thick enough to your liking, add a bit more flour until it is. Serve on buns.</v>
+        <v>Heat the oil and fry the prawns until warmed through. Add the spring onions and noodles and toss around. Tip in the lime juice mixture, then stir in the beansprouts and half the peanuts and coriander. Cook for 1 minute until everything is heated through.</v>
       </c>
       <c r="T16" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U16" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"step3":"Sprinkle flour over mixture and stir to mix well. If mixture is still not thick enough to your liking, add a bit more flour until it is. Serve on buns.",</v>
+        <v>"":"Heat the oil and fry the prawns until warmed through. Add the spring onions and noodles and toss around. Tip in the lime juice mixture, then stir in the beansprouts and half the peanuts and coriander. Cook for 1 minute until everything is heated through.",</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4038,30 +4011,26 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
-      <c r="N17" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="O17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="P17" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q17" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>step 4</v>
-      </c>
       <c r="R17" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>Pile into a large dish, scatter with the rest of the peanuts and coriander, and serve with lime wedges and sweet chilli sauce.</v>
       </c>
       <c r="T17" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U17" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"step 4":"0",</v>
+        <v>"":"Pile into a large dish, scatter with the rest of the peanuts and coriander, and serve with lime wedges and sweet chilli sauce.",</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4097,7 +4066,7 @@
         <v>246</v>
       </c>
       <c r="O18" s="18">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P18" s="18" t="s">
         <v>185</v>
@@ -4111,14 +4080,14 @@
       </c>
       <c r="S18" s="18">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="T18" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U18" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"c_time":"20",</v>
+        <v>"c_time":"35",</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4211,7 +4180,7 @@
         <v>67</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="P20" s="18" t="s">
         <v>185</v>
@@ -4225,14 +4194,14 @@
       </c>
       <c r="S20" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>american</v>
+        <v>thai</v>
       </c>
       <c r="T20" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U20" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>"cuisine":"american",</v>
+        <v>"cuisine":"thai",</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4268,7 +4237,7 @@
         <v>247</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="P21" s="18" t="s">
         <v>185</v>
@@ -4282,14 +4251,14 @@
       </c>
       <c r="S21" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>obama</v>
+        <v>ploy</v>
       </c>
       <c r="T21" s="18" t="s">
         <v>189</v>
       </c>
       <c r="U21" s="18" t="str">
         <f>CONCATENATE(P21&amp;Q21&amp;R21&amp;S21&amp;T21&amp;Q1)</f>
-        <v>"author":"obama",}</v>
+        <v>"author":"ploy",}</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4334,7 +4303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4416,7 +4385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB52C4-B913-4ADC-BF4E-B41DB0E540FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4767,7 +4736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187441B1-1ACB-440C-A719-30C9FF958A1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4784,11 +4753,11 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
@@ -4818,36 +4787,36 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="93"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="95"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -4864,491 +4833,455 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="89" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="89" t="s">
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="88"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="92" t="s">
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="92" t="s">
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="94"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="86"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="84" t="s">
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="84" t="s">
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="86"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="94"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85" t="s">
+      <c r="C12" s="93"/>
+      <c r="D12" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="86"/>
-      <c r="F12" s="84" t="s">
+      <c r="E12" s="94"/>
+      <c r="F12" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85" t="s">
+      <c r="G12" s="93"/>
+      <c r="H12" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="84" t="s">
+      <c r="I12" s="94"/>
+      <c r="J12" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85" t="s">
+      <c r="K12" s="93"/>
+      <c r="L12" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="M12" s="86"/>
+      <c r="M12" s="94"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="86"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="94"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="48"/>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="D14" s="88"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="49"/>
       <c r="F14" s="48"/>
-      <c r="G14" s="87" t="s">
+      <c r="G14" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="H14" s="88"/>
+      <c r="H14" s="97"/>
       <c r="I14" s="49"/>
       <c r="J14" s="48"/>
-      <c r="K14" s="87" t="s">
+      <c r="K14" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="L14" s="88"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="89" t="s">
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="89" t="s">
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="88"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="92" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="92" t="s">
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="86"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="94"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="86"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="94"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="86"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="94"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="84" t="s">
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="84" t="s">
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="94"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="E20" s="86"/>
-      <c r="F20" s="84" t="s">
+      <c r="E20" s="94"/>
+      <c r="F20" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85" t="s">
+      <c r="G20" s="93"/>
+      <c r="H20" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="I20" s="86"/>
-      <c r="J20" s="84" t="s">
+      <c r="I20" s="94"/>
+      <c r="J20" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85" t="s">
+      <c r="K20" s="93"/>
+      <c r="L20" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="M20" s="86"/>
+      <c r="M20" s="94"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="86"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="48"/>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="D22" s="88"/>
+      <c r="D22" s="97"/>
       <c r="E22" s="49"/>
       <c r="F22" s="48"/>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="H22" s="88"/>
+      <c r="H22" s="97"/>
       <c r="I22" s="49"/>
       <c r="J22" s="48"/>
-      <c r="K22" s="87" t="s">
+      <c r="K22" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="L22" s="88"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="49"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="89" t="s">
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="89" t="s">
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="91"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="88"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="92" t="s">
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="92" t="s">
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="86"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="94"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="86"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="94"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="86"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="94"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="84" t="s">
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="84" t="s">
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="86"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="94"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85" t="s">
+      <c r="C28" s="93"/>
+      <c r="D28" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="E28" s="86"/>
-      <c r="F28" s="84" t="s">
+      <c r="E28" s="94"/>
+      <c r="F28" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85" t="s">
+      <c r="G28" s="93"/>
+      <c r="H28" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="I28" s="86"/>
-      <c r="J28" s="84" t="s">
+      <c r="I28" s="94"/>
+      <c r="J28" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85" t="s">
+      <c r="K28" s="93"/>
+      <c r="L28" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="M28" s="86"/>
+      <c r="M28" s="94"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="86"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="94"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="48"/>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="D30" s="88"/>
+      <c r="D30" s="97"/>
       <c r="E30" s="49"/>
       <c r="F30" s="48"/>
-      <c r="G30" s="87" t="s">
+      <c r="G30" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="H30" s="88"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="49"/>
       <c r="J30" s="48"/>
-      <c r="K30" s="87" t="s">
+      <c r="K30" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="L30" s="88"/>
+      <c r="L30" s="97"/>
       <c r="M30" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="J4:M5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="B8:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="B16:E18"/>
-    <mergeCell ref="F16:I18"/>
-    <mergeCell ref="J16:M18"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="B4:I5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="F8:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M26"/>
-    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="B28:C29"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="G22:H22"/>
@@ -5362,21 +5295,57 @@
     <mergeCell ref="H28:I29"/>
     <mergeCell ref="J28:K29"/>
     <mergeCell ref="L28:M29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="B16:E18"/>
+    <mergeCell ref="F16:I18"/>
+    <mergeCell ref="J16:M18"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="B8:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B4:I5"/>
+    <mergeCell ref="F8:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M10"/>
+    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F54B3DA-C6A7-427A-AC45-5AFDC2CD6262}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26:O26"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5438,22 +5407,22 @@
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="47"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="47"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
       <c r="J8" s="47"/>
     </row>
     <row r="10" spans="2:13" s="47" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5739,11 +5708,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1ECFFB9-F329-4B23-9318-003F0086B0AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5755,11 +5724,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
@@ -5842,12 +5811,12 @@
       <c r="F7" s="116"/>
       <c r="G7" s="116"/>
       <c r="H7" s="117"/>
-      <c r="I7" s="132" t="s">
+      <c r="I7" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
       <c r="M7" s="114"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -5872,11 +5841,11 @@
       <c r="F9" s="119"/>
       <c r="G9" s="119"/>
       <c r="H9" s="120"/>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="112" t="s">
         <v>246</v>
       </c>
       <c r="J9" s="114"/>
-      <c r="L9" s="113" t="s">
+      <c r="L9" s="112" t="s">
         <v>67</v>
       </c>
       <c r="M9" s="114"/>
@@ -5901,7 +5870,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="119"/>
       <c r="H11" s="120"/>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="112" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="114"/>
@@ -6085,126 +6054,133 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="C25:K26"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="C29:K30"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C23:K24"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B7:H12"/>
@@ -6221,20 +6197,13 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H19:K19"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="C25:K26"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="C29:K30"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C23:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F67A11F-427C-4C7E-9346-5D814505CB8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6277,30 +6246,30 @@
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="47"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="95"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
       <c r="J5" s="47"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="90"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="133"/>
       <c r="G7" s="32"/>
       <c r="H7" s="135" t="s">
@@ -6310,24 +6279,24 @@
       <c r="J7" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="91"/>
+      <c r="K7" s="88"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="134"/>
       <c r="G8" s="35"/>
       <c r="H8" s="136"/>
       <c r="I8" s="134"/>
       <c r="J8" s="136"/>
-      <c r="K8" s="95"/>
+      <c r="K8" s="91"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="133"/>
       <c r="G10" s="32"/>
       <c r="H10" s="135" t="s">
@@ -6337,24 +6306,24 @@
       <c r="J10" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="K10" s="91"/>
+      <c r="K10" s="88"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="134"/>
       <c r="G11" s="35"/>
       <c r="H11" s="136"/>
       <c r="I11" s="134"/>
       <c r="J11" s="136"/>
-      <c r="K11" s="95"/>
+      <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="133"/>
       <c r="G13" s="32"/>
       <c r="H13" s="135" t="s">
@@ -6364,24 +6333,24 @@
       <c r="J13" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="K13" s="91"/>
+      <c r="K13" s="88"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="134"/>
       <c r="G14" s="35"/>
       <c r="H14" s="136"/>
       <c r="I14" s="134"/>
       <c r="J14" s="136"/>
-      <c r="K14" s="95"/>
+      <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="133"/>
       <c r="G16" s="32"/>
       <c r="H16" s="135" t="s">
@@ -6391,24 +6360,24 @@
       <c r="J16" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="K16" s="91"/>
+      <c r="K16" s="88"/>
     </row>
     <row r="17" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="93"/>
-      <c r="E17" s="94"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="134"/>
       <c r="G17" s="35"/>
       <c r="H17" s="136"/>
       <c r="I17" s="134"/>
       <c r="J17" s="136"/>
-      <c r="K17" s="95"/>
+      <c r="K17" s="91"/>
     </row>
     <row r="18" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="90"/>
+      <c r="E19" s="87"/>
       <c r="F19" s="133"/>
       <c r="G19" s="32"/>
       <c r="H19" s="135" t="s">
@@ -6418,24 +6387,24 @@
       <c r="J19" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="K19" s="91"/>
+      <c r="K19" s="88"/>
     </row>
     <row r="20" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="134"/>
       <c r="G20" s="35"/>
       <c r="H20" s="136"/>
       <c r="I20" s="134"/>
       <c r="J20" s="136"/>
-      <c r="K20" s="95"/>
+      <c r="K20" s="91"/>
     </row>
     <row r="21" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="86" t="s">
         <v>222</v>
       </c>
-      <c r="E22" s="90"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="133"/>
       <c r="G22" s="32"/>
       <c r="H22" s="135" t="s">
@@ -6445,33 +6414,22 @@
       <c r="J22" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="91"/>
+      <c r="K22" s="88"/>
     </row>
     <row r="23" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="93"/>
-      <c r="E23" s="94"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="134"/>
       <c r="G23" s="35"/>
       <c r="H23" s="136"/>
       <c r="I23" s="134"/>
       <c r="J23" s="136"/>
-      <c r="K23" s="95"/>
+      <c r="K23" s="91"/>
     </row>
     <row r="26" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="D10:F11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="J13:K14"/>
     <mergeCell ref="D22:F23"/>
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J22:K23"/>
@@ -6481,6 +6439,17 @@
     <mergeCell ref="D19:F20"/>
     <mergeCell ref="H19:I20"/>
     <mergeCell ref="J19:K20"/>
+    <mergeCell ref="D10:F11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="J13:K14"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
